--- a/biology/Botanique/Marssonina/Marssonina.xlsx
+++ b/biology/Botanique/Marssonina/Marssonina.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Marssonina est un genre de champignons de la famille des Dermateaceae, dont on pense aujourd'hui qu'il constitue le stade asexué (anamorphe ou forme imparfaite) du genre Diplocarpon.
 </t>
@@ -511,9 +523,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>D'après la 10e édition du Dictionary of the Fungi[1] (2007), ce genre contient les espèces suivantes :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>D'après la 10e édition du Dictionary of the Fungi (2007), ce genre contient les espèces suivantes :
 Marssonina betulae
 Marssonina daphnes
 Marssonina dispersa
@@ -521,7 +535,7 @@
 Marssonina necans
 Marssonina salicigena
 Marssonina sorbi
-Selon Catalogue of Life                                   (19 juin 2013)[2] :
+Selon Catalogue of Life                                   (19 juin 2013) :
 Marssonina betulae
 Marssonina daphnes
 Marssonina dispersa
@@ -529,7 +543,7 @@
 Marssonina necans
 Marssonina salicigena
 Marssonina sorbi
-Selon Index Fungorum                                      (19 juin 2013)[3] :
+Selon Index Fungorum                                      (19 juin 2013) :
 Marssonina acaciae (Cooke &amp; Massee) Magnus 1906
 Marssonina acerina (Westend.) Magnus 1906
 Marssonina actaeae (Bres.) Magnus 1906
@@ -652,7 +666,7 @@
 Marssonina viticola (I. Miyake) F.L. Tai 1937
 Marssonina zanthoxyli Chona &amp; Munjal 1956
 Marssonina zanthoxyli Y.J. Lu &amp; G.L. Li 1995
-Selon MycoBank                                            (19 juin 2013)[4] :
+Selon MycoBank                                            (19 juin 2013) :
 Marssonina acaciae
 Marssonina acerina
 Marssonina actaeae
@@ -804,7 +818,7 @@
 Marssonina wyethiae
 Marssonina xanthophyla
 Marssonina zanthoxyli
-Selon NCBI  (19 juin 2013)[5] :
+Selon NCBI  (19 juin 2013) :
 Marssonina brunnea
 Marssonina coronariae
 Marssonina mali
